--- a/9wood-dev.ballistixcrm/src/test/resources/TestData.xlsx
+++ b/9wood-dev.ballistixcrm/src/test/resources/TestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>HP900</t>
+  </si>
+  <si>
+    <t>HP978</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/9wood-dev.ballistixcrm/src/test/resources/TestData.xlsx
+++ b/9wood-dev.ballistixcrm/src/test/resources/TestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>HP978</t>
+  </si>
+  <si>
+    <t>HP109</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
